--- a/Testdata/CoursesDetails.xlsx
+++ b/Testdata/CoursesDetails.xlsx
@@ -24,7 +24,7 @@
 </t>
   </si>
   <si>
-    <t>(5,465)</t>
+    <t>(5,467)</t>
   </si>
   <si>
     <t xml:space="preserve">Intermediate
@@ -55,7 +55,7 @@
 </t>
   </si>
   <si>
-    <t>(9,140)</t>
+    <t>(9,142)</t>
   </si>
   <si>
     <t xml:space="preserve">Spanish
